--- a/biology/Botanique/H.Rob/H.Rob..xlsx
+++ b/biology/Botanique/H.Rob/H.Rob..xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Harold Ernest Robinson est un botaniste et un entomologiste américain, né le 22 mai 1932 à Syracuse, New York et mort le 17 décembre 2020[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Harold Ernest Robinson est un botaniste et un entomologiste américain, né le 22 mai 1932 à Syracuse, New York et mort le 17 décembre 2020.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les connaissances en taxinomie du Dr Robinson embrassent de nombreux groupes de plantes et de certains groupes d'insectes. Mais sa vraie spécialisation est la famille des Asteraceae ainsi que les bryophytes. Il a nommé ou décrit plus de 2 800 nouvelles espèces et sous-tribus, ce qui représente plus d'un dixième du nombre d'espèces des Asteraceae. Ce chiffre représente aussi un quart des plantes à fleurs décrites par Carl von Linné.
 Il rédige plus de 650 publications, principalement sur les Asteraceae, les mousses et les Hépatiques, ainsi que 200 nouvelles espèces et 6 nouveaux genres de la famille des Dolichopodidae appartenant aux Diptères.
